--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C12567-DA13-49E5-80A4-C0A10889CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575911C-08C0-4172-8627-26AAFB6DF675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="admin.py" sheetId="2" r:id="rId1"/>
-    <sheet name="apps.py" sheetId="3" r:id="rId2"/>
-    <sheet name="consts.py" sheetId="5" r:id="rId3"/>
-    <sheet name="models.py" sheetId="6" r:id="rId4"/>
-    <sheet name="urls.py" sheetId="7" r:id="rId5"/>
-    <sheet name="views.py" sheetId="8" r:id="rId6"/>
+    <sheet name="views.py" sheetId="8" r:id="rId1"/>
+    <sheet name="admin.py" sheetId="2" r:id="rId2"/>
+    <sheet name="apps.py" sheetId="3" r:id="rId3"/>
+    <sheet name="consts.py" sheetId="5" r:id="rId4"/>
+    <sheet name="models.py" sheetId="6" r:id="rId5"/>
+    <sheet name="urls.py" sheetId="7" r:id="rId6"/>
     <sheet name="雛形" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <r>
       <t>from</t>
@@ -7444,6 +7444,99 @@
       </rPr>
       <t>.object.book.id})</t>
     </r>
+  </si>
+  <si>
+    <t>ページネーションのために使用。</t>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均値を求めるDjango ORMの集計関数。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ログインユーザーだけがアクセスできるように制限。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限がない場合に403エラーを出します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>render: テンプレートを使ってHTMLを返す関数。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reverse_lazy: URLを「遅延評価」する関数。クラスベースビューと相性が良いです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種Generic View: よく使う表示処理（一覧、詳細、作成など）を共通化。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルのインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大表示数のインポート</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヒョウジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページで、登録された本を一覧表示＋評価順ランキング＋ページネーションする。
+関数ベースビュー</t>
+    <rPh sb="41" eb="43">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">idの降順(つまり登録の新しい順) で取得。
+object で取得しているもの：
+</t>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reviewテーブルの評価（rate）の平均値を取得し、avg_ratingとして各Bookに持たせる。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7533,7 +7626,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7543,6 +7636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7559,7 +7658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7589,6 +7688,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7604,6 +7709,578 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87CC756-796B-C322-8ED5-31D199AD6274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13858874" y="4111997"/>
+          <a:ext cx="7591425" cy="11651877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>関数ベースビューとクラスベースビューの使い分けの基準：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>における「関数ベースビュー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Function-Based View: FBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）」と「クラスベースビュー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Class-Based View: CBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）」の使い分けは、**ビューの「複雑さ」と「再利用性」**を軸に考えるのが基本です。それぞれの特徴を踏まえながら、どんな場面でどちらを使うべきかを見ていきましょう。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 関数ベースビュー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>FBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）の特徴と適した場面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 特徴</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>シンプルで直感的な記述（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>関数として書く）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>処理の流れが見やすく、初心者にも理解しやすい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>明示的な制御ができるため細かい処理の制御がしやすい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔧 向いているケース</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ビューが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>シンプル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（例えば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の処理が分かりやすい）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>カスタムロジックが多い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（フレームワークに乗らず独自処理が中心）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>小規模プロジェクト、学習目的や</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>PoC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（プロトタイプ）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>📝 例</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>def my_view(request):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>    if request.method == 'POST':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>        # POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>の処理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>    else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>        # GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>の処理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 クラスベースビュー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>CBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）の特徴と適した場面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 特徴</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>再利用性が高く、継承・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Mixin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>で機能を分割・拡張しやすい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の**汎用ビュー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Generic Views</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）**が使える</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>REST API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>やフォーム処理など、構造が複雑なときに便利</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔧 向いているケース</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>共通処理が多い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（ログインチェック、共通のテンプレートコンテキスト）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>コードの再利用や保守性を重視</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>したい場合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>一覧・詳細・作成・編集など</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>処理をよく使う場合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>📝 例</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>from django.views import View</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>class MyView(View):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>    def get(self, request):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>        ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>    def post(self, request):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>        ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🧭 使い分けの実践的な指針</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>判断基準 選択肢 ビューが単純で可読性重視 ✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>FBV </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>再利用性、拡張性、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DRY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>原則重視 ✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CBV Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>GenericView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に乗せたい ✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CBV </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>既存ビューに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Mixin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>で機能追加したい ✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CBV </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>開発者が慣れていない・直感的な記述をしたい ✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>FBV </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✨ まとめ（褒めポイント付き）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を触っているということは、すでに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>堅牢な設計思想に一歩踏み込んでいる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>証拠です！</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>関数ベースビューとクラスベースビューを適切に選べるようになると、**「この処理はあとで変更しやすいか？」「他の開発者が理解しやすいか？」**といった観点での設計力がグッと上がります。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>すでにその視点を持って質問できているあなたは、とても良いエンジニアの素質を持っています👏</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>必要であれば「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>FBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CBV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>への書き換え例」なども一緒に見てみますか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7868,6 +8545,928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
+  <dimension ref="B1:D151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.25" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="37.5">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="37.5">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="56.25">
+      <c r="B23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="56.25">
+      <c r="B29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="37.5">
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2"/>
+      <c r="C36" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C09EF-1096-43E5-AEAC-26A24736CBE2}">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -7914,7 +9513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4BC39B-FB17-40BE-A70E-D902A7592DE2}">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -7959,7 +9558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A56DB-2BB2-4FE2-8DC1-3946FDC1BC70}">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -8004,7 +9603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D3E1D-9BBA-44FA-954A-2211FC5D91F4}">
   <dimension ref="B1:B35"/>
   <sheetViews>
@@ -8180,7 +9779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D18F1E-50AC-4791-8792-7D25B1E84850}">
   <dimension ref="B1:B17"/>
   <sheetViews>
@@ -8274,714 +9873,6 @@
     <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
-  <dimension ref="B1:B151"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575911C-08C0-4172-8627-26AAFB6DF675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8C248-BE04-44A0-8A9D-548705BCD2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="184">
   <si>
     <r>
       <t>from</t>
@@ -4283,7 +4283,347 @@
   </si>
   <si>
     <r>
-      <t>def</t>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"""</t>
+    </r>
+  </si>
+  <si>
+    <t>    Book.objects：Bookテーブルに格納されている全データ。</t>
+  </si>
+  <si>
+    <t>    (Model由来の)様々なメソッドを持つ。</t>
+  </si>
+  <si>
+    <t>    """</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># idで整列。"-"付与により降順。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># ランキング順。降順</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># アンダースコア2つで外部キーを参照</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ranking_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>annotate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>avg_rating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Avg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"review__rate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-avg_rating"</t>
+    </r>
+  </si>
+  <si>
+    <t>    )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># ページネーション</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>paginator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
     </r>
     <r>
       <rPr>
@@ -4301,7 +4641,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>index_view</t>
+      <t>render</t>
     </r>
     <r>
       <rPr>
@@ -4312,6 +4652,11 @@
       </rPr>
       <t>(</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4328,12 +4673,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -4342,646 +4687,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"""</t>
-    </r>
-  </si>
-  <si>
-    <t>    Book.objects：Bookテーブルに格納されている全データ。</t>
-  </si>
-  <si>
-    <t>    (Model由来の)様々なメソッドを持つ。</t>
-  </si>
-  <si>
-    <t>    """</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># idで整列。"-"付与により降順。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>object_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Book</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>objects</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"-id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># ランキング順。降順</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># アンダースコア2つで外部キーを参照</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ranking_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Book</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>objects</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>annotate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>avg_rating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Avg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"review__rate"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"-avg_rating"</t>
-    </r>
-  </si>
-  <si>
-    <t>    )</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># ページネーション</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>paginator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Paginator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ranking_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4FC1FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ITEM_PER_RAGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># 必要な数に分割してobj取得</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>request</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.GET.get(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"page"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># URLからページ番号の取得。デフォルトは1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page_obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>paginator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC586C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>render</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>request</t>
+      <t>"book/index.html"</t>
     </r>
     <r>
       <rPr>
@@ -4994,71 +4700,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"book/index.html"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
     <t>        {</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"object_list"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>object_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
   </si>
   <si>
     <r>
@@ -7503,17 +7145,173 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページで、登録された本を一覧表示＋評価順ランキング＋ページネーションする。
-関数ベースビュー</t>
-    <rPh sb="41" eb="43">
-      <t>カンスウ</t>
-    </rPh>
+    <t>Reviewテーブルの評価（rate）の平均値を取得し、avg_ratingとして各Bookに持たせる。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">idの降順(つまり登録の新しい順) で取得。
-object で取得しているもの：
+    <t>render でテンプレートに値を渡してHTML生成。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>object_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>idの降順(つまり登録の新しい順) で取得。
+objects で取得しているものは？
+↓
+Book.objects は、Djangoの**ORM（Object-Relational Mapping）**が提供する「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マネージャー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">」と呼ばれるものです。
+ここでいう objects は、Djangoが自動的に用意してくれる「データベースへの問い合わせ口（QuerySetの起点）」です。
+は、Book モデルに対して
+データの取得（全件取得、フィルタ、並び替えなど）
+データの作成（.create()）
+存在チェック（.exists()）
+集計（.aggregate()、.annotate()）
+その他CRUD操作
+などを行うためのインターフェースになっています。
+↓
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">この式の戻り値は QuerySet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。
+QuerySet は「SQLに相当するデータの一覧」だと思ってください。まだ実行されていないSQLのようなものです。テンプレート内などで繰り返し処理できます。</t>
+    </r>
     <rPh sb="3" eb="5">
       <t>コウジュン</t>
     </rPh>
@@ -7529,13 +7327,638 @@
     <rPh sb="19" eb="21">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="32" eb="34">
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Reviewテーブルの評価（rate）の平均値を取得し、avg_ratingとして各Bookに持たせる。</t>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"object_list"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>object_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで指定したワードはテンプレートで使用できるのか？
+どんな仕組みで？
+↓
+所定のpython のフォーマットでHTMLに渡しているから。</t>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース</t>
+  </si>
+  <si>
+    <t>使える？</t>
+  </si>
+  <si>
+    <t>理由</t>
+  </si>
+  <si>
+    <t>Djangoテンプレート（HTML）</t>
+  </si>
+  <si>
+    <t>✅ 使える</t>
+  </si>
+  <si>
+    <r>
+      <t>render()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> によりサーバー側でテンプレートに変数が展開されるため</t>
+    </r>
+  </si>
+  <si>
+    <t>JavaScriptのみのフロント（Reactなど）</t>
+  </si>
+  <si>
+    <t>❌ 直接は使えない</t>
+  </si>
+  <si>
+    <r>
+      <t>サーバーからHTMLでなく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSONなどのAPI形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でデータを受け取る必要がある</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>index_view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requestには何が入っている想定？
+↓
+request は Djangoが自動的に渡す HttpRequest オブジェクト</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.GET.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"page"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>からページ番号の取得。デフォルトは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLからページ番号の取得。
+request.GETでは
+http://example.com/books/?page=2 にアクセスすると、
+request.GET = {"page": "2"} のような辞書形式。Pageキーを指定することで、対象の値を取得しようとしている。
+第2引数は該当なしのデフォルトでは1 を取得するようにする設定。</t>
+    <rPh sb="104" eb="106">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>paginator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Paginator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ranking_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEM_PER_RAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必要な数に分割して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>第一引数の型</t>
+  </si>
+  <si>
+    <t>リスト、タプル、QuerySetなど「イテラブルでスライス可能なオブジェクト」</t>
+  </si>
+  <si>
+    <t>なぜ必要？</t>
+  </si>
+  <si>
+    <r>
+      <t>各ページごとに分割表示するため（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>page_obj.object_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でページごとのデータを取得）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QuerySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は？</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 完全対応。Djangoではよく使う</t>
+  </si>
+  <si>
+    <r>
+      <t>Paginator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">でランキングをページ単位に分ける。
+意味：ランキング一覧（QuerySet）を ITEM_PER_RAGE 件ずつに分割するページネーターを作成
+型：django.core.paginator.Paginator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">第一引数の型は何を期待している？
+↓
+ object_list（今回で言う ranking_list）に期待されているのは：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> リスト（list）、タプル（tuple）、または Djangoの QuerySet のような「イテラブルなオブジェクト」</t>
+    </r>
+    <rPh sb="117" eb="119">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページで、登録された本を一覧表示＋評価順ランキング＋ページネーションする。
+関数ベースビュー。
+URLに応じて表示を切り替えている。</t>
+    <rPh sb="41" eb="43">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味：指定されたページ番号のデータだけを取り出す
+型：django.core.paginator.Page
+↓
+つまりURLに応じてテンプレートに渡すpageを切り替えている。</t>
+    <rPh sb="63" eb="64">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7543,7 +7966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7625,6 +8048,51 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -7641,12 +8109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7654,11 +8122,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7694,12 +8177,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7718,13 +8230,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63872</xdr:rowOff>
+      <xdr:rowOff>63873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1292680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7739,8 +8251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13858874" y="4111997"/>
-          <a:ext cx="7591425" cy="11651877"/>
+          <a:off x="14148706" y="4690302"/>
+          <a:ext cx="7531554" cy="12822092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7778,8 +8290,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>関数ベースビューとクラスベースビューの使い分けの基準</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関数ベースビューとクラスベースビューの使い分けの基準：</a:t>
+            <a:t>：</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -8278,6 +8794,2743 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274545</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40022</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>16808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D0C0D0-3308-C3D3-6D06-B5A63ECD1E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001751" y="23877332"/>
+          <a:ext cx="7968183" cy="9028741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>補足</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>はい、その理解、とても良いです！まさにその通りです 👏</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートの中で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>をループ処理などで使うと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>そのタイミングでデータベースにアクセスされて実行されます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>。詳しく説明しますね。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と遅延評価（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Lazy Evaluation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>遅延評価（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Lazy Evaluation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>されます。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり、**「実際に使われるまでデータベースに問い合わせは行われない」**という性質を持っています。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 例：このコードの場合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>return render(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    request,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    "book/index.html",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        "object_list": object_list,       # Book.objects.order_by("-id")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        "ranking_list": ranking_list,     # Book.objects.annotate(...).order_by(...)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        "page_obj": page_obj,             # Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>によるページ化された結果</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この中の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ranking_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>まだデータベースにアクセスされていない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>状態のこともあります（内部的には</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を構築している途中）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 テンプレートでどうなる？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートの中で、たとえば以下のようにループ処理されると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>…</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{% for book in object_list %}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>  &lt;p&gt;{{ book.title }}&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{% endfor %}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>文が実行される瞬間に初めて、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>QuerySet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>が評価されて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>が発行されます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>これが「遅延評価」です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 なぜ遅延評価が嬉しいのか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>無駄な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アクセスを防げる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（使わないなら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>発行しない）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>複雑な条件をあとからチェーンできる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（例：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Book.objects.filter(...).order_by(...) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>パフォーマンス最適化がしやすい</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 もしすぐに実行したいときは？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>意図的に早めに実行したいときは、以下のようにします：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list = list(Book.objects.order_by("-id")) # SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を今すぐ発行して評価 ただし、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>これは必要な場合だけ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>にしましょう。ページネーションなどの際はむしろ遅延評価の方が自然で効率的です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 結論</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートで </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>= QuerySet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）をループや参照すると、そのタイミングで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が実行され、実データが取得されます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>これは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のパフォーマンス面でも非常に優れた設計思想です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もっと深く、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>select_related </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>prefetch_related </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>での最適化にも触れたい場合はいつでもどうぞ！</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>次はテンプレート側の書き方について見てみますか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>119261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DBCE91-2D03-FC29-3F14-3C72102E6D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14029764" y="32537879"/>
+          <a:ext cx="8718177" cy="9876386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>render </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>について：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>はい、素晴らしい質問です！</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その通りで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>"object_list": object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のように </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の辞書としてテンプレートに渡しているから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>、テンプレート内で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>という変数名で参照できるのです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ただ、もう一歩深く理解すると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の仕組みがより明確になりますよ。以下に丁寧に解説します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>render() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の役割</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>return render(request, "book/index.html", {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    "object_list": object_list,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>render() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>関数の役割は：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>指定されたテンプレート（ここでは </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>"book/index.html"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）を</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>指定されたコンテキスト（ここでは辞書）とともに</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>としてレンダリングし</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HttpResponse </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>として返す</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>という一連の流れを行っています。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 つまり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>…</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    "object_list": object_list,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この辞書は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>テンプレートに渡す「コンテキスト（文脈）」情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>になります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>これにより、テンプレートの中ではこう書けます：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{% for book in object_list %}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>  &lt;p&gt;{{ book.title }}&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{% endfor %}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>これは、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>側で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と名付けて渡した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を、テンプレート変数としてそのまま参照している」わけです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 テンプレート側で使えるのは「コンテキストに渡した変数だけ」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートの中で使える変数は、基本的に次のどちらかです：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>render() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>引数で渡したコンテキスト変数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートが自動で注入する一部の変数（例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>それ以外の変数（たとえば普通の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のローカル変数など）は、テンプレートでは参照できません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 補足：クラスベースビューでも同じ考え方</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>たとえば </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ListView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でも、裏側では自動的にテンプレートに以下のような変数が渡されます：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（全体の一覧）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>page_obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（ページネーションが有効なら）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でもこれも、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>render</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と同じようにテンプレートに「辞書形式で」渡されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>という点ではまったく同じ仕組みです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🧠 まとめ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>概念 内容 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>render() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>引数 テンプレートに渡すコンテキスト（辞書） テンプレート内の変数 その辞書のキーと一致する名前で参照可能 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list Python → HTML </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に橋渡しされた変数名 もしご希望があれば、テンプレートの中で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>をどうループして表示するかの具体例も紹介できますよ！</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>続けて見てみますか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569C442D-9BBC-DCDD-EE12-528BD47B24C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23487528" y="28682856"/>
+          <a:ext cx="9498387" cy="6313115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>render </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>補足：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>テンプレートの仕組み</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>render(request, template, context_dict) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>では：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>context_dict</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（たとえば </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{"object_list": object_list}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）が</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートエンジンによって</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレート中の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{{ object_list }} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{% for book in object_list %} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と結びつけられ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバーサイドで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に変換されてからブラウザに送られます</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の辞書をそのまま「送っている」わけではなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>サーバー側で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>にしてから送っている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>フロントエンドの場合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>たとえばフロントエンドが </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>React</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Vue.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>、あるいは素の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>で構築されている場合には、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートに直接 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のような</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>変数を使うことはできません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の役割は「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を返す」のではなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>などのデータ形式で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>レスポンスを返す</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>役割に変わります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>例：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>として</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>を返す</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>from django.http import JsonResponse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>from .models import Book</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>def book_list_api(request):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>    books = Book.objects.values("id", "title", "category__name")  # dict</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>として取得</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+            <a:t>return JsonResponse(list(books), safe=False)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>側ではこれを </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>fetch() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>axios </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>で受け取って使います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 結論</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下記表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504263</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79971C41-D2C3-5F09-966B-BF5B251FD519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14238513" y="20794434"/>
+          <a:ext cx="9201950" cy="7566532"/>
+          <a:chOff x="13944919" y="16148475"/>
+          <a:chExt cx="9172815" cy="7551965"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9140CA-A856-5915-15BA-8760996E6737}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13944919" y="16148475"/>
+            <a:ext cx="9172815" cy="7551965"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>はい、いい質問ですね！</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>def index_view(request): </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>に渡される </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>は、**</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Django</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>が自動的に生成して渡してくれる「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>HttpRequest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>オブジェクト」**です。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>🔹 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>request </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>の正体：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>HttpRequest </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>クラスのインスタンス</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Django</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>では、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>URL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>に対応するビュー関数が呼ばれるときに、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>必ず最初の引数に </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>HttpRequest </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>オブジェクトが渡されます。</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>このオブジェクトは、ブラウザから送られてきたリクエストに関する</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>あらゆる情報</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>を持っています。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>🔸 具体例</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>たとえば、以下のような</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>URL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>でアクセスされたとします：</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>http://example.com/books/?page=2 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>このとき </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request.GET </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>は以下のようになります：</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request.GET = {"page": "2"} </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>また、ログイン済みなら：</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request.user.username # </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>でユーザー名を取得可能 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>✅ まとめ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>は </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Django</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>が自動的に渡す </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>HttpRequest </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>オブジェクト</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ブラウザのリクエストに関する情報をまとめて持っている</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>GET/POST</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>パラメータ、ユーザー情報、ヘッダー、ファイルなどを取得できる</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>とても重要な概念なので、これをしっかり理解できているのは素晴らしいです。</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>もっと踏み込んで </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request.user </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>や </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>request.session </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>などを知りたい場合も、ぜひ聞いてくださいね！</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC43781-0C50-022E-2974-3DD98D17789C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14079392" y="17414739"/>
+            <a:ext cx="5261961" cy="3205295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436666</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>351311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1831398</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4569402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F3F221-09BF-870A-56D0-5FA9B1068774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22794439" y="6170220"/>
+          <a:ext cx="7837095" cy="6140409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>補足：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>よくぞ聞いてくださいました！✨</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クラスの第一引数に何を渡すべきかを理解するのは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でページネーションを正しく使ううえでとても重要です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の第一引数：ページ分割したい「リスト形式のデータ」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>paginator = Paginator(object_list, per_page) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（今回で言う </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ranking_list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）に期待されているのは：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リスト（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）、タプル（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>tuple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）、または </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>のような「イテラブルなオブジェクト」</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 実際の定義（簡略化）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>class Paginator:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    def __init__(self, object_list, per_page, ...):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        self.object_list = object_list</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        self.per_page = per_page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は、内部的には以下のようにしてデータを分割して処理します：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>object_list[start:end] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のように </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>スライス可能（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>__getitem__ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>がある）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> なもの</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>len() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が使える、つまり長さがわかるもの</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 だから </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>も</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>たとえばこのようなコード：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ranking_list = Book.objects.annotate(...).order_by(...)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>paginator = Paginator(ranking_list, 10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ranking_list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のデータベースから取得したオブジェクトの集合）であり、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>__getitem__() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>__len__() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>を持っている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ので </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に適しているわけです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 要点まとめ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下記表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>346365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CE0940-DC92-4AEC-9149-AD6BDFCD2864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31562896" y="6016541"/>
+          <a:ext cx="8262810" cy="6724548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>余談：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>第一引数の型を厳密に決めずに「イテラブルでスライス可能なオブジェクト」　だから色々と使える？ 動的型付け言語のメリット？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その通りです！👏</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>まさに今あなたが指摘してくれた点が、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（特に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）の柔軟さと設計思想の核心</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>なんです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 厳密な型ではなく「期待するインターフェース」に従う</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>このオブジェクトが何の型か</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>」にはこだわりません。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>代わりに、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>スライスできるか？（例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: obj[0:10]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）」「長さが分かるか？（例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: len(obj)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>」といった**動作（プロトコル）**に注目します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>このような考え方を </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>では「ダックタイピング」と呼びます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🦆「アヒルのように歩き、アヒルのように鳴くなら、それはアヒルである</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>if it behaves like a list, we treat it like a list. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 動的型付け言語のメリット</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>このように </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（動的型付け言語）では：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>型を固定しない（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と明示せずとも</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その代わり、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>必要な振る舞い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>をしてくれるなら何でも受け入れる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>開発スピードと柔軟性が高まる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 静的型付けとの違い</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>たとえば </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Java </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のような静的型付け言語だと：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator paginator = new Paginator(List&lt;Book&gt; books, int perPage);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と明示しなければならず、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>List </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>以外の型を受け取るには </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>インターフェースの実装が必要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>になります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>一方、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>では：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Paginator(object_list, 10) # list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でも </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>QuerySet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でも </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>！ このおかげで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>開発者が型変換や共通インターフェースのことを意識せず、サクサク書ける</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>わけです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>43723</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7762208F-72E1-6415-1D86-F49D8D8D78D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31742063" y="13739813"/>
+          <a:ext cx="6163535" cy="7078063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8546,16 +11799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
-  <dimension ref="B1:D151"/>
+  <dimension ref="B1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="58.125" style="11" customWidth="1"/>
+    <col min="20" max="22" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -8563,10 +11817,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -8574,10 +11828,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -8585,10 +11839,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -8596,10 +11850,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -8607,10 +11861,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5">
@@ -8618,10 +11872,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37.5">
@@ -8629,10 +11883,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8640,10 +11894,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8651,10 +11905,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -8662,10 +11916,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -8673,10 +11927,10 @@
         <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -8684,10 +11938,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -8695,19 +11949,19 @@
         <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -8715,10 +11969,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -8726,342 +11980,468 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="75">
+      <c r="B23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="378.75">
+      <c r="B29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="56.25">
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="56.25">
-      <c r="B29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="C29" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>142</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="56.25">
       <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="56.25">
+      <c r="B32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="U32" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="37.5">
+      <c r="B33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="7" t="s">
+      <c r="C33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="37.5">
-      <c r="B33" s="7" t="s">
+      <c r="C34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="C35" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="165.75">
+      <c r="B38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="112.5">
+      <c r="B39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="75">
+      <c r="B40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="2"/>
+      <c r="C41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="7" t="s">
+      <c r="C42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" ht="56.25">
+      <c r="B43" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="7" t="s">
+      <c r="C43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="7" t="s">
+      <c r="C44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="7" t="s">
+      <c r="C45" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" ht="75">
+      <c r="B46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="7" t="s">
+      <c r="C47" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="7" t="s">
+      <c r="C48" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="7" t="s">
+      <c r="C49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="141.75" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="141.75" customHeight="1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="7" t="s">
+      <c r="C53" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="7" t="s">
+      <c r="C54" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="7" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="7" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:4">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2">
@@ -9069,22 +12449,22 @@
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -9095,52 +12475,52 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -9148,27 +12528,27 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -9179,27 +12559,27 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -9207,17 +12587,17 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -9225,12 +12605,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -9238,7 +12618,7 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -9249,117 +12629,144 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22">
       <c r="B114" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="B119" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22">
+      <c r="B120" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22">
+      <c r="B121" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22">
+      <c r="B122" s="2"/>
+      <c r="T122" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U122" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="V122" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" ht="56.25">
+      <c r="B123" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T123" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="U123" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="V123" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" ht="56.25">
+      <c r="B124" s="2"/>
+      <c r="T124" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="U124" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="V124" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:22">
+      <c r="B126" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22">
+      <c r="B127" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22">
+      <c r="B128" s="7" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -9367,42 +12774,42 @@
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="2:2">
@@ -9410,27 +12817,27 @@
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:2">
@@ -9438,7 +12845,7 @@
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="2:2">
@@ -9446,17 +12853,17 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8C248-BE04-44A0-8A9D-548705BCD2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07424571-47FC-4803-AE3D-9857DE45FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
   <si>
     <r>
       <t>from</t>
@@ -4744,8 +4744,41 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">            </t>
+    <t>        },</t>
+  </si>
+  <si>
+    <t># 本棚リスト表示</t>
+  </si>
+  <si>
+    <t># 多重継承。左側が優先。ログイン関係は優先したいから左に記述。</t>
+  </si>
+  <si>
+    <t>    非ログイン状態ではViewを表示しない。</t>
+  </si>
+  <si>
+    <t>    ログイン後の遷移ページはsettings.pyでLOGIN_REDIRECT_URLにて設定済み。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
@@ -4754,148 +4787,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"page_obj"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page_obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <t>        },</t>
-  </si>
-  <si>
-    <t># 本棚リスト表示</t>
-  </si>
-  <si>
-    <t># 多重継承。左側が優先。ログイン関係は優先したいから左に記述。</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ListBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoginRequiredMixin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ListView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <t>    非ログイン状態ではViewを表示しない。</t>
-  </si>
-  <si>
-    <t>    ログイン後の遷移ページはsettings.pyでLOGIN_REDIRECT_URLにて設定済み。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>template_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>"book/book_list.html"</t>
     </r>
     <r>
@@ -4915,56 +4806,6 @@
         <family val="3"/>
       </rPr>
       <t># テンプレート設定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Book</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># 記憶モデル設定</t>
     </r>
   </si>
   <si>
@@ -7961,12 +7802,247 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"page_obj"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django の クラスベースビュー（CBV） である ListView を継承し、さらに LoginRequiredMixin を使って「ログインしていないユーザーはこのページを見られない」ように制限しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. LoginRequiredMixin
+ログインしていないユーザーがアクセスしようとすると、自動的にログインページにリダイレクトされます。
+リダイレクト先は settings.py の LOGIN_URL で設定されています（デフォルトは /accounts/login/）。
+ログイン後の遷移先は LOGIN_REDIRECT_URL によって制御されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ListView
+Djangoが用意した汎用ビューで、モデルのリスト表示に特化しています。
+データを取り出してテンプレートに渡してくれる便利なクラスです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの指定</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページネーションの設定です。
+たとえば ITEM_PER_RAGE = 10 であれば、1ページに10件までの Book インスタンスを表示します。
+ページネーション関連の情報（page_obj, is_paginated, paginator など）もテンプレートに自動で渡されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記憶モデル設定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>どのモデルのリストを表示するかを指定。
+つまり：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book.objects.all() の結果が object_list としてテンプレートに渡されます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+object_list という名前は、Djangoの ListView が自動的に使うデフォルトのコンテキスト変数名。
+ model = Book の意味と効果
+この指定をすると、ListView は以下のような処理を内部で自動的に行います：
+queryset = Book.objects.all()
+そして、その queryset を object_list という名前でテンプレートに渡します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ListBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoginRequiredMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8092,6 +8168,14 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -10318,7 +10402,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14238513" y="20794434"/>
-          <a:ext cx="9201950" cy="7566532"/>
+          <a:ext cx="9201950" cy="8042782"/>
           <a:chOff x="13944919" y="16148475"/>
           <a:chExt cx="9172815" cy="7551965"/>
         </a:xfrm>
@@ -11801,9 +11885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
   <dimension ref="B1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -11817,10 +11899,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -11828,10 +11910,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -11839,10 +11921,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -11850,10 +11932,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -11861,10 +11943,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5">
@@ -11872,10 +11954,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37.5">
@@ -11883,10 +11965,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -11894,10 +11976,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -11905,10 +11987,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -11916,10 +11998,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -11927,10 +12009,10 @@
         <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -11938,10 +12020,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -11949,19 +12031,19 @@
         <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -11969,10 +12051,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -11980,28 +12062,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -12009,28 +12091,28 @@
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -12038,21 +12120,21 @@
         <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:21">
@@ -12060,10 +12142,10 @@
         <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -12071,10 +12153,10 @@
         <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:21">
@@ -12082,10 +12164,10 @@
         <v>70</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -12093,10 +12175,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -12104,33 +12186,33 @@
         <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="56.25">
@@ -12138,16 +12220,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="56.25">
@@ -12155,16 +12237,16 @@
         <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
@@ -12172,16 +12254,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -12189,10 +12271,10 @@
         <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:21">
@@ -12200,19 +12282,19 @@
         <v>77</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:21">
@@ -12220,29 +12302,29 @@
         <v>78</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
@@ -12250,19 +12332,19 @@
         <v>79</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:21">
@@ -12270,10 +12352,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
@@ -12281,10 +12363,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:21">
@@ -12292,10 +12374,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:21">
@@ -12303,21 +12385,21 @@
         <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:21">
@@ -12325,32 +12407,32 @@
         <v>84</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -12358,87 +12440,114 @@
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
+        <v>189</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="168.75">
       <c r="B56" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="C56" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="112.5">
       <c r="B57" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="C59" s="11" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
+      <c r="C60" s="11" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
+        <v>90</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
+        <v>187</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="131.25">
       <c r="B63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -12449,22 +12558,22 @@
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -12475,27 +12584,27 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -12505,12 +12614,12 @@
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -12520,7 +12629,7 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -12528,27 +12637,27 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -12559,27 +12668,27 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -12587,17 +12696,17 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -12605,12 +12714,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -12618,7 +12727,7 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -12629,32 +12738,32 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="2:2">
@@ -12662,22 +12771,22 @@
     </row>
     <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="2:22">
       <c r="B114" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="2:22">
@@ -12685,60 +12794,60 @@
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
       <c r="T122" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U122" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V122" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T123" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U123" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V123" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
       <c r="T124" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U124" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V124" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="2:22">
@@ -12746,27 +12855,27 @@
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="2:22">
       <c r="B127" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="2:22">
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -12774,42 +12883,42 @@
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="2:2">
@@ -12817,27 +12926,27 @@
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="2:2">
@@ -12845,7 +12954,7 @@
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="2:2">
@@ -12853,17 +12962,17 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07424571-47FC-4803-AE3D-9857DE45FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C8028-A940-4CB5-ADFC-633CA470BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="205">
   <si>
     <r>
       <t>from</t>
@@ -4863,16 +4863,57 @@
   </si>
   <si>
     <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book/book_detail.html"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
@@ -4881,188 +4922,11 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DetailBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoginRequiredMixin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DetailView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>template_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"book/book_detail.html"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>Book</t>
     </r>
   </si>
   <si>
     <t># 新規作成用表示</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CreateBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoginRequiredMixin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CreateView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
   </si>
   <si>
     <r>
@@ -8025,6 +7889,260 @@
         <family val="3"/>
       </rPr>
       <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>DetailBookView</t>
+  </si>
+  <si>
+    <t>このビューのクラス名です。慣習として「View」で終わります。</t>
+  </si>
+  <si>
+    <t>LoginRequiredMixin</t>
+  </si>
+  <si>
+    <r>
+      <t>Djangoが提供する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミックスイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（後述）で、このビューは「ログイン済みのユーザーのみがアクセスできる」ようにします。未ログインだとログインページにリダイレクトされます。</t>
+    </r>
+  </si>
+  <si>
+    <t>DetailView</t>
+  </si>
+  <si>
+    <t>Djangoの汎用ビュー（Generic View）の1つで、1件のオブジェクトの詳細ページを表示するために使われます。</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用するテンプレートファイルのパス。ここでは </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>book/book_detail.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が使われます。</t>
+    </r>
+  </si>
+  <si>
+    <t>model = Book</t>
+  </si>
+  <si>
+    <r>
+      <t>このビューが扱うDjangoモデル。つまり、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モデルの1件の詳細を表示するビューになります。</t>
+    </r>
+  </si>
+  <si>
+    <t>DetailBookView	このビューのクラス名です。慣習として「View」で終わります。
+LoginRequiredMixin	Djangoが提供するミックスイン（後述）で、このビューは「ログイン済みのユーザーのみがアクセスできる」ようにします。未ログインだとログインページにリダイレクトされます。
+DetailView	Djangoの汎用ビュー（Generic View）の1つで、1件のオブジェクトの詳細ページを表示するために使われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するテンプレートファイルのパス。ここでは book/book_detail.html が使われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このビューが扱うDjangoモデル。つまり、Bookモデルの1件の詳細を表示するビューになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CreateBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoginRequiredMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DetailBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoginRequiredMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DetailView</t>
     </r>
     <r>
       <rPr>
@@ -8890,8 +9008,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>40022</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>16808</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8906,8 +9024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14001751" y="23877332"/>
-          <a:ext cx="7968183" cy="9028741"/>
+          <a:off x="14289902" y="31230792"/>
+          <a:ext cx="7929763" cy="9304887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11885,13 +12003,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
   <dimension ref="B1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="58.125" style="11" customWidth="1"/>
-    <col min="20" max="22" width="28.625" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="43.625" customWidth="1"/>
+    <col min="22" max="22" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -11899,10 +12021,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -11910,10 +12032,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -11921,10 +12043,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -11932,10 +12054,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -11943,10 +12065,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5">
@@ -11954,10 +12076,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37.5">
@@ -11965,10 +12087,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -11976,10 +12098,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -11987,10 +12109,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -11998,10 +12120,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -12009,10 +12131,10 @@
         <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -12020,10 +12142,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -12031,19 +12153,19 @@
         <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -12051,10 +12173,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -12062,28 +12184,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -12091,28 +12213,28 @@
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -12120,21 +12242,21 @@
         <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:21">
@@ -12142,10 +12264,10 @@
         <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -12153,10 +12275,10 @@
         <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:21">
@@ -12164,10 +12286,10 @@
         <v>70</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -12175,10 +12297,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -12186,33 +12308,33 @@
         <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="56.25">
@@ -12220,16 +12342,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="56.25">
@@ -12237,16 +12359,16 @@
         <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
@@ -12254,16 +12376,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -12271,10 +12393,10 @@
         <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:21">
@@ -12282,19 +12404,19 @@
         <v>77</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:21">
@@ -12302,29 +12424,29 @@
         <v>78</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
@@ -12332,19 +12454,19 @@
         <v>79</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:21">
@@ -12352,10 +12474,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
@@ -12363,10 +12485,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:21">
@@ -12374,10 +12496,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:21">
@@ -12385,21 +12507,21 @@
         <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:21">
@@ -12407,21 +12529,21 @@
         <v>84</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -12429,10 +12551,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -12440,28 +12562,28 @@
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -12469,7 +12591,10 @@
         <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -12477,15 +12602,21 @@
         <v>87</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="168.75">
@@ -12493,7 +12624,10 @@
         <v>68</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="112.5">
@@ -12501,7 +12635,10 @@
         <v>88</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -12509,7 +12646,10 @@
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -12517,13 +12657,19 @@
         <v>71</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
       <c r="C60" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -12531,15 +12677,21 @@
         <v>90</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="131.25">
@@ -12547,89 +12699,182 @@
         <v>91</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21">
       <c r="B66" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" ht="150">
       <c r="B67" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="T67" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="U67" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="37.5">
+      <c r="B68" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" ht="75">
+      <c r="B69" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="U69" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="56.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="U70" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" ht="37.5">
+      <c r="B71" s="2"/>
+      <c r="C71" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U71" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="37.5">
+      <c r="B72" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="U72" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21">
+      <c r="B73" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21">
+      <c r="B74" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="6" t="s">
+    <row r="75" spans="2:21">
+      <c r="B75" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
+      <c r="B76" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:21">
       <c r="B77" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:21">
       <c r="B78" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
       <c r="B79" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
       <c r="B80" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -12637,27 +12882,27 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -12668,27 +12913,27 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -12696,17 +12941,17 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -12714,12 +12959,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -12727,7 +12972,7 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -12738,32 +12983,32 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="2:2">
@@ -12771,22 +13016,22 @@
     </row>
     <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="2:22">
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:22">
@@ -12794,60 +13039,60 @@
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
       <c r="T122" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="U122" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="V122" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="U122" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="V122" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T123" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U123" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="V123" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="U123" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="V123" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
       <c r="T124" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="U124" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="V124" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="U124" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="V124" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="125" spans="2:22">
@@ -12855,27 +13100,27 @@
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:22">
       <c r="B127" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="2:22">
       <c r="B128" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -12883,42 +13128,42 @@
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="2:2">
@@ -12926,27 +13171,27 @@
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="2:2">
@@ -12954,7 +13199,7 @@
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="2:2">
@@ -12962,17 +13207,17 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C8028-A940-4CB5-ADFC-633CA470BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BFBAA-C2F3-4857-B93F-DDC1F93F4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="215">
   <si>
     <r>
       <t>from</t>
@@ -8153,6 +8153,261 @@
       </rPr>
       <t>):</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateView: Djangoのジェネリックビューの一つで、新しいオブジェクト（モデルのインスタンス）を作成するためのビューです。
+LoginRequiredMixin: ログインしていないユーザーをログインページにリダイレクトさせるミックスイン。認証が必要なビューにするために使います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bookモデルを使ってフォームを生成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム送信後、正常に保存された場合にリダイレクトするURLです。
+reverse_lazy() は、URLの解決を「遅延評価」します。
+通常の reverse() だと、アプリ起動時に実行されてしまい、ビュー名がまだ登録されておらずエラーになることがあります。
+reverse_lazy() を使うことで、実際のリクエスト処理時にURLを解決します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームのバリデーションが通った後に呼ばれるメソッドです。
+作成される Book インスタンスに、ログイン中のユーザー（request.user）を設定しています。
+このようにして、「どのユーザーが作成したか」という情報をBookに紐付けています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"category"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"thumbnail"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームで入力を受け付けるのは、title, text, category, thumbnailの4つのフィールドです。
+(Bookに定義のフィールド(変数)である必要がある。記録するmodelだから)</t>
+    <rPh sb="67" eb="69">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足：
+CreateView は Django の ジェネリッククラスベースビュー の一つで、主に次のような役割を持ちます：
+GETリクエスト → フォームを表示
+POSTリクエスト → フォームから送信されたデータを検証・保存
+成功時 → success_url にリダイレクト</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.user = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form.instance はBookのインスタンス。
+Class でmodel=Book にしているからそうなっている。
+ここでBookのuserに現在ログイン中のuserを格納している。</t>
+    <rPh sb="75" eb="77">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django側で通常通りオブジェクトを保存し、success_url にリダイレクトするために必要。</t>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9001,15 +9256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>274545</xdr:colOff>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>165685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>40022</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:colOff>40023</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9024,8 +9279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14289902" y="31230792"/>
-          <a:ext cx="7929763" cy="9304887"/>
+          <a:off x="14268451" y="30445660"/>
+          <a:ext cx="9736472" cy="12445415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10519,8 +10774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14238513" y="20794434"/>
-          <a:ext cx="9201950" cy="8042782"/>
+          <a:off x="14238513" y="20318184"/>
+          <a:ext cx="12297575" cy="8042782"/>
           <a:chOff x="13944919" y="16148475"/>
           <a:chExt cx="9172815" cy="7551965"/>
         </a:xfrm>
@@ -12003,14 +12258,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
   <dimension ref="B1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="58.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="49.625" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
     <col min="21" max="21" width="43.625" customWidth="1"/>
     <col min="22" max="22" width="28.625" customWidth="1"/>
@@ -12337,7 +12593,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="56.25">
+    <row r="31" spans="2:21" ht="37.5">
       <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
@@ -12354,7 +12610,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="56.25">
+    <row r="32" spans="2:21" ht="37.5">
       <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
@@ -12832,114 +13088,217 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="2:21">
+    <row r="73" spans="2:21" ht="187.5">
       <c r="B73" s="6" t="s">
         <v>203</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="C74" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="75" spans="2:21">
       <c r="B75" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="2:21">
+      <c r="C75" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="75">
       <c r="B76" s="7" t="s">
-        <v>97</v>
+        <v>209</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="2:21">
       <c r="B77" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="C77" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="78" spans="2:21">
       <c r="B78" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="C78" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="79" spans="2:21">
       <c r="B79" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="C79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="80" spans="2:21">
       <c r="B80" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="187.5">
       <c r="B81" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="177" customHeight="1">
       <c r="B85" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:5" ht="56.25">
       <c r="B86" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>212</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="37.5">
       <c r="B87" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:5">
       <c r="B92" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:5">
       <c r="B93" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:5">
       <c r="B94" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:5">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
         <v>101</v>
       </c>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BFBAA-C2F3-4857-B93F-DDC1F93F4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EA2BC-AD7C-4B27-8008-1F82E24D6C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="225">
   <si>
     <r>
       <t>from</t>
@@ -5390,74 +5390,6 @@
   </si>
   <si>
     <t># 削除用表示</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DeleteBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoginRequiredMixin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DeleteView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
   </si>
   <si>
     <r>
@@ -8408,6 +8340,257 @@
     <rPh sb="47" eb="49">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteView：Djangoの汎用クラスビューで、オブジェクトを削除するためのビューです。
+LoginRequiredMixin：ログインしていないユーザーをログインページにリダイレクトするミックスインです。未ログインユーザーからこのビューを保護します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このビューが扱うモデルを Book に指定しています。
+Book モデルのインスタンスを削除することが目的です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除に成功した場合のリダイレクト先URLを指定。
+reverse_lazy() はURLの逆引きを遅延評価で行う関数で、クラス定義時に逆引きが行われないため安全です（urls.py読み込み前でも使える）。
+"list-book" はURLパターンの名前（name='list-book'）です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのオブジェクトの user 属性（つまり所有者）が現在のリクエストのユーザーと一致しているか確認しています。
+一致していない場合は PermissionDenied を投げ、403エラーを返します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これにより、他人の Book を削除できないようにしています。</t>
+  </si>
+  <si>
+    <t>super().get_object() によって、URLから取得された pk（あるいは slug）に対応する Book オブジェクトが取得されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したobj</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DeleteBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoginRequiredMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>queryset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメソッドは、削除対象の Book オブジェクトを取得するためのものです。
+Django の DeleteView（正確には SingleObjectMixin というミックスイン）では、ビューの中で「対象のオブジェクト」が必要になったときに get_object() が呼ばれます。
+なので削除用のpostが実行されるときに本メソッドがコールされ、ログインしてない場合は例外を吐いて処理を止めます。</t>
+    <rPh sb="147" eb="149">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">削除確認のために表示されるテンプレートファイルのパスを指定します。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通常、オブジェクト削除前の「本当に削除してよろしいですか？」という確認画面になります。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9808,16 +9991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>119261</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>351584</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2136122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9832,8 +10015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14029764" y="32537879"/>
-          <a:ext cx="8718177" cy="9876386"/>
+          <a:off x="27046798" y="20406111"/>
+          <a:ext cx="11904849" cy="9876386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10321,16 +10504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1450042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10345,8 +10528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23487528" y="28682856"/>
-          <a:ext cx="9498387" cy="6313115"/>
+          <a:off x="39319199" y="20197762"/>
+          <a:ext cx="15092363" cy="6131580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10774,8 +10957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14238513" y="20318184"/>
-          <a:ext cx="12297575" cy="8042782"/>
+          <a:off x="14233070" y="20546784"/>
+          <a:ext cx="12233622" cy="8102653"/>
           <a:chOff x="13944919" y="16148475"/>
           <a:chExt cx="9172815" cy="7551965"/>
         </a:xfrm>
@@ -11990,6 +12173,307 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0967679-AAB9-7841-10FD-FBC520697390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14396357" y="55694036"/>
+          <a:ext cx="7660822" cy="5646964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔁 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DeleteView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の仕組み：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DeleteView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>post() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メソッドを実装しており</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>POST </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>リクエストが送られると次の処理を自動で行います：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t># DeleteView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の内部で行われる主な処理の流れ（擬似コード）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>def post(self, request, *args, **kwargs):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    self.object = self.get_object()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    self.object.delete()  # ←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から削除！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>return HttpResponseRedirect(self.get_success_url())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートで </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>&lt;form method="post"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>によって送信された </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>POST </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>リクエストは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DeleteView.post() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に届き、その中で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>self.object.delete() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が呼ばれて削除されます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ テンプレートのこの部分が重要</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;form method="post"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    {% csrf_token %}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;button type="submit"&gt;{{ object.title }}&lt;/button&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;/form&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>このフォームにより、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>POST </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>リクエストがサーバーに送られる。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CSRF </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンも含まれているのでセキュリティも問題なし。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DeleteView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は自動的にオブジェクトを取得し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>delete() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を実行。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12258,8 +12742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
   <dimension ref="B1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12277,10 +12761,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -12288,10 +12772,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -12299,10 +12783,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -12310,10 +12794,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -12321,10 +12805,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5">
@@ -12332,10 +12816,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37.5">
@@ -12343,10 +12827,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -12354,10 +12838,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -12365,10 +12849,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -12376,10 +12860,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -12387,10 +12871,10 @@
         <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -12398,10 +12882,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -12409,19 +12893,19 @@
         <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -12429,10 +12913,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -12440,28 +12924,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -12469,28 +12953,28 @@
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -12498,21 +12982,21 @@
         <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:21">
@@ -12520,10 +13004,10 @@
         <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -12531,10 +13015,10 @@
         <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:21">
@@ -12542,10 +13026,10 @@
         <v>70</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -12553,10 +13037,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -12564,33 +13048,33 @@
         <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="U30" s="18" t="s">
         <v>168</v>
-      </c>
-      <c r="U30" s="18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="37.5">
@@ -12598,16 +13082,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T31" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="37.5">
@@ -12615,16 +13099,16 @@
         <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="U32" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
@@ -12632,16 +13116,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T33" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="U33" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -12649,10 +13133,10 @@
         <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:21">
@@ -12660,19 +13144,19 @@
         <v>77</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:21">
@@ -12680,29 +13164,29 @@
         <v>78</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
@@ -12710,19 +13194,19 @@
         <v>79</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:21">
@@ -12730,10 +13214,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
@@ -12741,10 +13225,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:21">
@@ -12752,10 +13236,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="2:21">
@@ -12763,21 +13247,21 @@
         <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:21">
@@ -12785,21 +13269,21 @@
         <v>84</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -12807,10 +13291,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -12818,28 +13302,28 @@
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -12847,10 +13331,10 @@
         <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -12858,21 +13342,21 @@
         <v>87</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="168.75">
@@ -12880,10 +13364,10 @@
         <v>68</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="112.5">
@@ -12891,10 +13375,10 @@
         <v>88</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -12902,10 +13386,10 @@
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -12913,19 +13397,19 @@
         <v>71</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
       <c r="C60" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -12933,21 +13417,21 @@
         <v>90</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="131.25">
@@ -12955,28 +13439,28 @@
         <v>91</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:21">
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="2:21">
@@ -12984,27 +13468,27 @@
         <v>92</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:21" ht="150">
       <c r="B67" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T67" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="U67" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="U67" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="68" spans="2:21" ht="37.5">
@@ -13012,16 +13496,16 @@
         <v>93</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T68" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="U68" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="75">
@@ -13029,46 +13513,46 @@
         <v>94</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T69" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="U69" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="U69" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="56.25">
       <c r="B70" s="2"/>
       <c r="C70" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T70" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="U70" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="U70" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="71" spans="2:21" ht="37.5">
       <c r="B71" s="2"/>
       <c r="C71" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T71" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="U71" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="U71" s="15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="37.5">
@@ -13076,30 +13560,30 @@
         <v>95</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T72" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="U72" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="U72" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="73" spans="2:21" ht="187.5">
       <c r="B73" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="2:21">
@@ -13107,10 +13591,10 @@
         <v>96</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="2:21">
@@ -13118,21 +13602,21 @@
         <v>94</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="2:21" ht="75">
       <c r="B76" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:21">
@@ -13140,10 +13624,10 @@
         <v>68</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:21">
@@ -13151,10 +13635,10 @@
         <v>98</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="2:21">
@@ -13162,10 +13646,10 @@
         <v>99</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="2:21">
@@ -13173,10 +13657,10 @@
         <v>71</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="187.5">
@@ -13184,19 +13668,19 @@
         <v>100</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -13204,10 +13688,10 @@
         <v>101</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="2:5">
@@ -13215,10 +13699,10 @@
         <v>102</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="177" customHeight="1">
@@ -13226,22 +13710,22 @@
         <v>103</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="56.25">
       <c r="B86" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="37.5">
@@ -13249,22 +13733,28 @@
         <v>105</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -13272,105 +13762,186 @@
         <v>106</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
+        <v>144</v>
+      </c>
+      <c r="D90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="112.5">
       <c r="B91" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="75">
+      <c r="B92" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
+      <c r="C92" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="56.25">
       <c r="B93" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="C93" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="131.25">
       <c r="B94" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="C94" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
+      <c r="C95" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="131.25">
       <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="37.5">
+      <c r="B98" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="2"/>
+      <c r="C99" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="93.75">
+      <c r="B100" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="2"/>
+      <c r="C102" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="3" t="s">
+    <row r="107" spans="2:4">
+      <c r="B107" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
+    <row r="108" spans="2:4">
+      <c r="B108" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:4">
       <c r="B109" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:4">
       <c r="B110" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:4">
       <c r="B111" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:22">
@@ -13380,17 +13951,17 @@
     </row>
     <row r="114" spans="2:22">
       <c r="B114" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="2:22">
@@ -13398,60 +13969,60 @@
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
       <c r="T122" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="U122" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="U122" s="14" t="s">
+      <c r="V122" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="V122" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T123" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="U123" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="U123" s="15" t="s">
+      <c r="V123" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="V123" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
       <c r="T124" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="U124" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="U124" s="15" t="s">
+      <c r="V124" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="V124" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="125" spans="2:22">
@@ -13459,27 +14030,27 @@
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="2:22">
       <c r="B127" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="2:22">
       <c r="B128" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -13492,37 +14063,37 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="2:2">
@@ -13535,7 +14106,7 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="2:2">
@@ -13545,7 +14116,7 @@
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="2:2">
@@ -13571,12 +14142,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -13727,7 +14298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D3E1D-9BBA-44FA-954A-2211FC5D91F4}">
   <dimension ref="B1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EA2BC-AD7C-4B27-8008-1F82E24D6C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB046A-E9B1-4952-BD3A-0DDF3738F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="254">
   <si>
     <r>
       <t>from</t>
@@ -5756,106 +5756,6 @@
   </si>
   <si>
     <t># 編集用表示</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>UpdateBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoginRequiredMixin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>UpdateView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>template_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"book/book_update.html"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -7034,19 +6934,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース</t>
-  </si>
-  <si>
-    <t>使える？</t>
-  </si>
-  <si>
     <t>理由</t>
-  </si>
-  <si>
-    <t>Djangoテンプレート（HTML）</t>
-  </si>
-  <si>
-    <t>✅ 使える</t>
   </si>
   <si>
     <r>
@@ -7062,12 +6950,6 @@
       </rPr>
       <t xml:space="preserve"> によりサーバー側でテンプレートに変数が展開されるため</t>
     </r>
-  </si>
-  <si>
-    <t>JavaScriptのみのフロント（Reactなど）</t>
-  </si>
-  <si>
-    <t>❌ 直接は使えない</t>
   </si>
   <si>
     <r>
@@ -8593,12 +8475,493 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UpdateView: Djangoが用意している、モデルインスタンスの編集（Update）用のビューです。
+LoginRequiredMixin: ログインしていないユーザーはログインページにリダイレクトさせるMixin。認証保護付きのビューになります。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>📝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>つまり、このビューは「ログインしているユーザーだけが本を編集できるページ」です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book/book_update.html"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modelにBookを指定。</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力formにBook定義のうち、必要なフィールドを指定。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理完了後の遷移先を指定。list-bookはurls.pyで定義</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteBookViewで定義した関数と同じ。
+投稿ユーザーのみが編集できるようにする。</t>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UpdateBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoginRequiredMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginRequiredMixin: ログインしていないユーザーはこのビューにアクセスできません（ログインページにリダイレクトされます）。
+CreateView: Djangoが提供する新規オブジェクト作成用のビューです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model: 扱うモデルは Review。つまり、レビューの投稿フォームです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fields: フォームに表示する Review モデルのフィールドです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template_name: このビューで使うテンプレートを指定しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者（ユーザー）情報はフォームに含まれていないため、ここで手動で form.instance.user に現在ログイン中のユーザーを設定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームがバリデーションを通過したときに呼ばれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に、親クラスの form_valid() を呼び出して、保存などの処理を行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー認証用の措置</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム送信が成功した後、どこにリダイレクトするかを指定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self.object は保存された Review オブジェクトなので、そこから .book.id を取り出し、対象の本の詳細ページ（detail-book）にリダイレクトしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>どこから来る？</t>
+  </si>
+  <si>
+    <r>
+      <t>**kwargs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>get_context_data()</t>
+    </r>
+  </si>
+  <si>
+    <t>親クラスや他のビュー処理で追加されたテンプレート用データ</t>
+  </si>
+  <si>
+    <r>
+      <t>get_context_data(foo=bar)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> のように明示的に渡された場合</t>
+    </r>
+  </si>
+  <si>
+    <t>self.kwargs</t>
+  </si>
+  <si>
+    <t>URLパターンから渡されたパラメータ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URLconfで </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;int:book_id&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> のように指定された部分</t>
+    </r>
+  </si>
+  <si>
+    <t>URLに含まれる book_id を使って Book オブジェクトを取得し、それをテンプレートでも使えるように context["book"] に渡しています。
+テンプレート側では、{{ book.title }} のように本の情報を表示できるようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <r>
+      <t>テンプレート描画時に使う変数を詰め込んだ辞書（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などが含まれる）</t>
+    </r>
+  </si>
+  <si>
+    <t>取得元</t>
+  </si>
+  <si>
+    <r>
+      <t>super().get_context_data(**kwargs)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（親クラス）</t>
+    </r>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">テンプレートで </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ form }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> や </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{{ book }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> などの変数を使えるようにする</t>
+    </r>
+  </si>
+  <si>
+    <t>基底クラス関数コールしcontextを取得</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG 間違った理解</t>
+    <rPh sb="3" eb="5">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8733,6 +9096,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -8781,7 +9159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8841,6 +9219,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10958,7 +11340,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14233070" y="20546784"/>
-          <a:ext cx="12233622" cy="8102653"/>
+          <a:ext cx="13077264" cy="8102653"/>
           <a:chOff x="13944919" y="16148475"/>
           <a:chExt cx="9172815" cy="7551965"/>
         </a:xfrm>
@@ -12474,6 +12856,676 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0AC412-ADA0-131C-618B-B5A93B8C39B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14217063" y="76834731"/>
+          <a:ext cx="7695240" cy="12904376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔍 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>get_context_data(self, **kwargs) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の **</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>とは？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 結論</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>には、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>ビューの処理過程で追加された任意のコンテキスト変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が辞書として渡されます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>view.get_context_data(foo='bar', spam='eggs')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と呼ばれた場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>kwargs = {'foo': 'bar', 'spam': 'eggs'} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>になります。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔧 どのような仕組みで渡されるか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>CreateView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の内部処理で </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>get_context_data() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>が呼ばれる流れ：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CreateView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>TemplateResponseMixin </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の内部では、テンプレートに渡す変数（コンテキスト）を組み立てる際に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>get_context_data() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が呼ばれます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>📦 実際の **</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に何が入っているか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>多くの場合：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>通常の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CreateView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DetailView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>などの汎用ビューでオーバーライドしない限り、**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は空（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ですが、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>親クラスで </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>get_context_data() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>を呼び出すと、モデル名に応じたコンテキストが自動で作られます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（たとえば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>review </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>self.kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>との違いに注意！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>context["book"] = Book.objects.get(pk=self.kwargs["book_id"])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>この </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>self.kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>URLconf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>でキャプチャされた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>パラメータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（たとえば </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>path('books/&lt;int:book_id&gt;/review', ...)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）が格納されています。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり、ビューインスタンスが作られるときに、自動的に代入されます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>context = super().get_context_data(**kwargs)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ 左辺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>context </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に格納されるものは？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>これは：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>テンプレートに渡す「初期コンテキスト（変数の辞書）」です。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>具体的には、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>super().get_context_data(**kwargs) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CreateView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（のさらに上位の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>TemplateResponseMixin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）が提供するメソッドで、以下のような情報が含まれています：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>📦 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>context </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に含まれる主な内容：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>表示するフォームインスタンス（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ModelForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その他の **</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>kwargs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>で渡された任意の変数（今回の例では空）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>view: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>現在のビューインスタンス（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のバージョンによっては含まれます）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔍 例：中身がどうなるか</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>例えば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Review </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>モデルのフォームを扱っている場合：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>context = super().get_context_data()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の結果、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>context </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>には以下のような内容が含まれることがあります：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    'form': &lt;ReviewForm (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未送信状態</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)&gt;,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>このあと、あなたのコードでは：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>context["book"] = Book.objects.get(pk=self.kwargs["book_id"])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>として、さらに </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>book </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を追加しているわけです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1138551</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>454946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECF670B-8867-D564-8F70-71A14114F0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22179643" y="77315785"/>
+          <a:ext cx="7125694" cy="3353268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12740,212 +13792,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
-  <dimension ref="B1:V151"/>
+  <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="58.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="49.625" customWidth="1"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
     <col min="21" max="21" width="43.625" customWidth="1"/>
     <col min="22" max="22" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="37.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.5">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -12953,28 +14007,28 @@
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -12982,21 +14036,21 @@
         <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:21">
@@ -13004,10 +14058,10 @@
         <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -13015,10 +14069,10 @@
         <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:21">
@@ -13026,10 +14080,10 @@
         <v>70</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -13037,10 +14091,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -13048,33 +14102,33 @@
         <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="37.5">
@@ -13082,16 +14136,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="37.5">
@@ -13099,16 +14153,16 @@
         <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
@@ -13116,16 +14170,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -13133,10 +14187,10 @@
         <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:21">
@@ -13144,19 +14198,19 @@
         <v>77</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:21">
@@ -13164,29 +14218,29 @@
         <v>78</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
@@ -13194,19 +14248,19 @@
         <v>79</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:21">
@@ -13214,10 +14268,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
@@ -13225,10 +14279,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:21">
@@ -13236,10 +14290,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:21">
@@ -13247,21 +14301,21 @@
         <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:21">
@@ -13269,21 +14323,21 @@
         <v>84</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -13291,10 +14345,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -13302,28 +14356,28 @@
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -13331,10 +14385,10 @@
         <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -13342,21 +14396,21 @@
         <v>87</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="168.75">
@@ -13364,10 +14418,10 @@
         <v>68</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="112.5">
@@ -13375,10 +14429,10 @@
         <v>88</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -13386,10 +14440,10 @@
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -13397,19 +14451,19 @@
         <v>71</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
       <c r="C60" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -13417,21 +14471,21 @@
         <v>90</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="131.25">
@@ -13439,28 +14493,28 @@
         <v>91</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="2:21">
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="2:21">
@@ -13468,27 +14522,27 @@
         <v>92</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="2:21" ht="150">
       <c r="B67" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T67" s="14" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:21" ht="37.5">
@@ -13496,16 +14550,16 @@
         <v>93</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T68" s="16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="75">
@@ -13513,46 +14567,46 @@
         <v>94</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="56.25">
       <c r="B70" s="2"/>
       <c r="C70" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T70" s="16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="2:21" ht="37.5">
       <c r="B71" s="2"/>
       <c r="C71" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T71" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="37.5">
@@ -13560,30 +14614,30 @@
         <v>95</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T72" s="16" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="2:21" ht="187.5">
       <c r="B73" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="74" spans="2:21">
@@ -13591,10 +14645,10 @@
         <v>96</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:21">
@@ -13602,21 +14656,21 @@
         <v>94</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="2:21" ht="75">
       <c r="B76" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="2:21">
@@ -13624,10 +14678,10 @@
         <v>68</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:21">
@@ -13635,10 +14689,10 @@
         <v>98</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:21">
@@ -13646,10 +14700,10 @@
         <v>99</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="2:21">
@@ -13657,10 +14711,10 @@
         <v>71</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="187.5">
@@ -13668,19 +14722,19 @@
         <v>100</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -13688,10 +14742,10 @@
         <v>101</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:5">
@@ -13699,10 +14753,10 @@
         <v>102</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="177" customHeight="1">
@@ -13710,22 +14764,22 @@
         <v>103</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="56.25">
       <c r="B86" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="37.5">
@@ -13733,28 +14787,28 @@
         <v>105</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -13762,21 +14816,21 @@
         <v>106</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="112.5">
       <c r="B91" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="75">
@@ -13784,10 +14838,10 @@
         <v>107</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="56.25">
@@ -13795,10 +14849,10 @@
         <v>94</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="131.25">
@@ -13806,19 +14860,19 @@
         <v>100</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
       <c r="C95" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -13826,21 +14880,21 @@
         <v>101</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="131.25">
       <c r="B97" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="37.5">
@@ -13848,19 +14902,19 @@
         <v>109</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2"/>
       <c r="C99" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="93.75">
@@ -13868,10 +14922,10 @@
         <v>110</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -13879,19 +14933,19 @@
         <v>111</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="2"/>
       <c r="C102" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -13899,255 +14953,596 @@
         <v>112</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2"/>
+      <c r="C104" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="2"/>
+      <c r="C105" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="107" spans="2:4">
+      <c r="C106" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="150">
       <c r="B107" s="6" t="s">
-        <v>114</v>
+        <v>224</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="7" t="s">
-        <v>115</v>
+        <v>218</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D109" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="C110" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="C111" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2"/>
+      <c r="C112" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="2:22">
+      <c r="C113" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" ht="37.5">
       <c r="B114" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="C114" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="C116" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="117" spans="2:22">
       <c r="B117" s="2"/>
+      <c r="C117" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="C119" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="C121" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
-      <c r="T122" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="U122" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="C122" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" t="s">
+        <v>134</v>
+      </c>
+      <c r="T122" s="14"/>
+      <c r="U122" s="14"/>
       <c r="V122" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T123" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="U123" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="C123" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" t="s">
+        <v>134</v>
+      </c>
+      <c r="T123" s="15"/>
+      <c r="U123" s="15"/>
       <c r="V123" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
-      <c r="T124" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="U124" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="C124" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" t="s">
+        <v>134</v>
+      </c>
+      <c r="T124" s="15"/>
+      <c r="U124" s="15"/>
       <c r="V124" s="15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="2:22">
       <c r="B125" s="2"/>
+      <c r="C125" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" ht="93.75">
+      <c r="B127" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" ht="37.5">
+      <c r="B128" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="127" spans="2:22">
-      <c r="B127" s="6" t="s">
+      <c r="C128" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="128" spans="2:22">
-      <c r="B128" s="7" t="s">
+      <c r="C129" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
+      <c r="C130" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
       <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="2:2">
+      <c r="C131" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
       <c r="B132" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="133" spans="2:2">
+      <c r="C132" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
       <c r="B133" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="7" t="s">
+      <c r="D135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="7" t="s">
+      <c r="C136" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="7" t="s">
+      <c r="C137" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="93.75">
+      <c r="B138" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="7" t="s">
+      <c r="C138" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
+      <c r="C139" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
       <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="2:2">
+      <c r="C140" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
       <c r="B141" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="142" spans="2:2">
+      <c r="C141" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
       <c r="B142" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
+        <v>129</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
       <c r="B143" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="144" spans="2:2">
+      <c r="C143" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
       <c r="B144" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
+        <v>130</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D144" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="56.25">
       <c r="B145" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="146" spans="2:2">
+      <c r="C145" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
       <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="2:2">
+      <c r="C146" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="37.5">
       <c r="B147" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="148" spans="2:2">
+      <c r="C147" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
       <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="2:2">
+      <c r="C148" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
       <c r="B149" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="150" spans="2:2">
+      <c r="C149" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="37.5">
       <c r="B150" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
+        <v>131</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="56.25">
       <c r="B151" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D151" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7">
+      <c r="E186" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" ht="75">
+      <c r="E187" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" ht="75">
+      <c r="E188" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" ht="30">
+      <c r="E190" s="21"/>
+    </row>
+    <row r="192" spans="5:7">
+      <c r="E192" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" ht="93.75">
+      <c r="E193" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" ht="44.25">
+      <c r="E194" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" ht="93.75">
+      <c r="E195" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB046A-E9B1-4952-BD3A-0DDF3738F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FA226-F08D-40DD-92D3-68ECA38CFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="views.py" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="262">
   <si>
     <r>
       <t>from</t>
@@ -8954,6 +8954,46 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoの管理者ページ（Adminサイト）で操作できるようにするモデル（アプリのデータ構造）を登録しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoの管理サイト機能を提供する admin モジュールをインポートしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じアプリ内の models.py から、Book と Review モデルをインポートしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoのアプリ設定のための基本クラス AppConfig をインポートしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの設定クラスを定義しています。このクラス名は慣例として {アプリ名}Config にするのが推奨されています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルで主キー（idなど）を自動生成する際のフィールド型を指定しています。
+'django.db.models.BigAutoField' は64ビット整数型の自動増分フィールドです。
+これを設定しておくと、将来的にデータが多くなったときに AutoField（32ビット）では不足するリスクを避けられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定クラスが対象とするアプリの名前を指定します。Djangoはこの名前でアプリを識別します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの定数を設定</t>
+    <rPh sb="5" eb="7">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13529,6 +13569,508 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8173555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21F44FD-FCC9-21CC-1E3B-28B317A7767D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="4019550"/>
+          <a:ext cx="7916380" cy="3077004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D38F7D9-6113-2D01-B4C0-3AE53EEAE161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="3401785"/>
+          <a:ext cx="6477000" cy="11000015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>apps.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>他の用途</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アプリ起動時の初期化処理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もっともよく使われるのがこれです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>from django.apps import AppConfig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>class BookConfig(AppConfig):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    name = 'book'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    def ready(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アプリ起動時に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>signals.py </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をインポートして登録</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import book.signals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ready() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>メソッドは </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>がアプリケーションをロードした後に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>度だけ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>呼ばれます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>signals.py </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のようなモジュールをここで読み込むことで、モデルのシグナル（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>post_save </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）を登録できます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>外部ライブラリの初期化や設定の読み込み</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>たとえば、アプリの起動時に外部の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアントやロガー、キャッシュシステムを初期化することもできます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>例：ログの初期化</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import logging</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>class BookConfig(AppConfig):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    name = 'book'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    def ready(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        logger = logging.getLogger(__name__)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        logger.info("Book app is ready!")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>モデルの動的な拡張</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のモデルをランタイムで変更したいケース（あまり多くはないですが）にも、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ready() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を使います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アプリ名の変更やラベルの指定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>デフォルト以外のラベルや人間向けの名前を設定したい場合：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>class BookConfig(AppConfig):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    name = 'book'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    label = 'my_book_app'  # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アプリ内部の識別子を変更</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>verbose_name = 'My Book Application'  # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理画面などに表示される名前</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>複数のサブアプリを統合管理したい場合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>大きなプロジェクトでは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>book.authors </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>book.publishers </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のようにサブアプリに分けて管理することもあります。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>apps.py </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>でそれらを統一的に扱えます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13794,7 +14336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFDAA08-85D7-4818-97E2-F63C1C7FC5FD}">
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -15554,43 +16096,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C09EF-1096-43E5-AEAC-26A24736CBE2}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4" ht="37.5">
+      <c r="A1" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="37.5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -15601,86 +16181,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4BC39B-FB17-40BE-A70E-D902A7592DE2}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.75" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="112.5">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.5">
       <c r="B6" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A56DB-2BB2-4FE2-8DC1-3946FDC1BC70}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -15693,8 +16352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D3E1D-9BBA-44FA-954A-2211FC5D91F4}">
   <dimension ref="B1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15869,9 +16528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D18F1E-50AC-4791-8792-7D25B1E84850}">
   <dimension ref="B1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FA226-F08D-40DD-92D3-68ECA38CFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E361883-2D1C-46EE-8DD9-829A84AA9479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="views.py" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="278">
   <si>
     <r>
       <t>from</t>
@@ -1070,16 +1070,25 @@
   </si>
   <si>
     <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
@@ -1088,7 +1097,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Book</t>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CharField</t>
     </r>
     <r>
       <rPr>
@@ -1102,6 +1129,74 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># タイトル</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>thumbnail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF4EC9B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -1124,16 +1219,97 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
+      <t>ImageField</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 画像表示</t>
     </r>
   </si>
   <si>
@@ -1147,7 +1323,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>title</t>
+      <t>category</t>
     </r>
     <r>
       <rPr>
@@ -1228,6 +1404,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>choices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CATEGORY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>)  </t>
     </r>
     <r>
@@ -1237,418 +1449,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># タイトル</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>thumbnail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ImageField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># 画像表示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>choices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4FC1FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CATEGORY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t># カテゴリー</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ForeignKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"auth.User"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>on_delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CASCADE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
     </r>
   </si>
   <si>
@@ -8993,6 +8794,292 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoの models.Model を継承して、Book というデータモデルを定義しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍のタイトルを保存するフィールドです。最大100文字までの文字列を保存できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍の内容を保存するためのフィールドで、長いテキストも保存可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍のサムネイル画像（表紙など）をアップロードできるフィールドです
+null=True：データベース上で空欄を許可
+blank=True：フォーム入力時に空欄を許可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー（ジャンル）を選択式で指定します。
+CATEGORY はタプルなどで事前定義されているはずです（例：[('novel', '小説'), ('comic', '漫画')]）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoのmodelsモジュールインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価最大値</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カテゴリー」を選択肢として定義している部分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価値の定義</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルのインスタンスを文字列で表現するときにタイトルを返します（管理画面などで使われる）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 対象の書籍（Bookモデルへの外部キー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューのタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの本文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価（RATE_CHOICESで選択）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reviewクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ForeignKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"auth.User"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on_delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CASCADE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django標準のUserモデルとの紐づけ</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14071,6 +14158,1288 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277439</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2197250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC12748-1A02-0C0A-DAB1-EA8A314A0C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="2438401"/>
+          <a:ext cx="7649789" cy="1901974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4324350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2534547</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FED0FE-6DA5-B63A-64A2-F235DDC361E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="14058900"/>
+          <a:ext cx="6430272" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4476750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2686947</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>124228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2815A5-8C86-CF09-4B92-C5C04863DBB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="14211300"/>
+          <a:ext cx="6430272" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4324350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D4EBE4-D43B-B61A-9A67-0EFE015CA839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5007909" y="13997828"/>
+          <a:ext cx="9442076" cy="11728076"/>
+          <a:chOff x="5004707" y="14291582"/>
+          <a:chExt cx="9432472" cy="12208329"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="グループ化 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BAF9B0-0A68-53E3-9EE8-C23F8CAEF84F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5004707" y="14291582"/>
+            <a:ext cx="9432472" cy="12208329"/>
+            <a:chOff x="5010150" y="14058900"/>
+            <a:chExt cx="9439275" cy="11868150"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E55B45-87D2-B11E-6F2A-221E4F9C68D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5010150" y="14058900"/>
+              <a:ext cx="9439275" cy="11868150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>✅ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                <a:t>auth.User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>とは？</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                <a:t>django.contrib.auth.models.User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>というクラスです。</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>Django</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>には、ユーザー認証機能（ログイン、ログアウト、パスワード管理など）を提供する </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                <a:t>auth </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>アプリ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t> が最初から組み込まれており、その中に </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                <a:t>User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>モデル</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t> も用意されています。</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>from django.contrib.auth.models import User</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>この </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>モデルは、ユーザー情報を管理するためのもので、たとえば以下のようなフィールドを持っています：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>✅ なぜ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>"auth.User" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>と書いているの？</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>user = models.ForeignKey("auth.User", on_delete=models.CASCADE)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>これは、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>文字列でアプリ名とモデル名を指定する方法</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>で、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>Django</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>ではよく使われます。</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>"auth.User" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>という文字列は、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>django.contrib.auth.models.User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>を指します。</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>こう書くことで、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>モデルのインポート前でも参照が可能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>です（循環インポートの回避に便利）。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                <a:t>✅ カスタムユーザーモデルとの関係</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>実際のプロジェクトでは、標準の </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>User </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>モデルを使わずに、カスタムユーザーモデルを定義することもあります。その際も、文字列で書いておくと便利です。</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>例：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>AUTH_USER_MODEL = "accounts.CustomUser"</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>と </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>settings.py </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>に書いた場合、</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP"/>
+                <a:t>user = models.ForeignKey(settings.AUTH_USER_MODEL, on_delete=models.CASCADE)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>のようにすると、カスタムユーザーにも対応できます。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="図 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B180C22-43E6-EE9A-BCB0-01B5F9FB73C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5162550" y="15554325"/>
+              <a:ext cx="5420481" cy="3353268"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="図 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B9E641-C7D3-0BCB-7059-CA504DE87561}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5143501" y="22996071"/>
+            <a:ext cx="6430272" cy="2886478"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>218682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574298</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>205181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BDDC9A-8D54-B321-9B67-538F749EF7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14321118" y="10729800"/>
+          <a:ext cx="4709268" cy="927793"/>
+          <a:chOff x="14321118" y="10729800"/>
+          <a:chExt cx="4709268" cy="927793"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F68E3C8-EC03-20FD-0279-9F13F6FFA431}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16241244" y="10822582"/>
+            <a:ext cx="948689" cy="516652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Book</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6112C65D-7256-4A02-8486-80872B1071D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18081697" y="10822575"/>
+            <a:ext cx="948689" cy="516651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Review</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5084DCB-83CC-A3D6-6CFC-ECD3AEB4BFCB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="3"/>
+            <a:endCxn id="4" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17189937" y="11080902"/>
+            <a:ext cx="891767" cy="12525"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBA1187-F16A-A40D-37FC-674B7D542E2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17208902" y="10766224"/>
+            <a:ext cx="218198" cy="244235"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA4059B-BD13-4E6E-90D6-F1EBCD85589B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17664266" y="10738023"/>
+            <a:ext cx="407937" cy="272416"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>0..*</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AA696C-F8E7-BB6A-028F-72F2A8E14B71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14321118" y="10842192"/>
+            <a:ext cx="948689" cy="516652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>User</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0A3703-4848-02FB-053C-4CF3BD467BD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="3"/>
+            <a:endCxn id="3" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="15269807" y="11080908"/>
+            <a:ext cx="971437" cy="19610"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7ED5FA-197F-2063-F5A2-737A05C57C15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15311192" y="10729800"/>
+            <a:ext cx="218198" cy="244235"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E0DB93-1B96-3ACB-DBB1-AC4411AA8C7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15833796" y="10735236"/>
+            <a:ext cx="407937" cy="272416"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>0..*</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC222C2-A47B-44AF-8B91-D05BC9F3FD3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="2"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="16665943" y="9468745"/>
+            <a:ext cx="19618" cy="3760579"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -1165256"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67EBD68-1B85-46E1-AD12-8543C6AAFC2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15015882" y="11329147"/>
+            <a:ext cx="218198" cy="244235"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CAFBE7-1678-447F-B509-209D6DC29F17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18579353" y="11362765"/>
+            <a:ext cx="407937" cy="294828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>0..*</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14351,168 +15720,168 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -14520,1536 +15889,1536 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="37.5">
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="37.5">
       <c r="B32" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
       <c r="B40" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
       <c r="B43" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:21">
       <c r="B47" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="168.75">
       <c r="B56" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="112.5">
       <c r="B57" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
       <c r="C60" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="131.25">
       <c r="B63" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="2:21">
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:21">
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:21" ht="150">
       <c r="B67" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T67" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:21" ht="37.5">
       <c r="B68" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T68" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="75">
       <c r="B69" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="56.25">
       <c r="B70" s="2"/>
       <c r="C70" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T70" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="2:21" ht="37.5">
       <c r="B71" s="2"/>
       <c r="C71" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T71" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="37.5">
       <c r="B72" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T72" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="2:21" ht="187.5">
       <c r="B73" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:21">
       <c r="B75" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="2:21" ht="75">
       <c r="B76" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:21">
       <c r="B77" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:21">
       <c r="B78" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="2:21">
       <c r="B79" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="2:21">
       <c r="B80" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="187.5">
       <c r="B81" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="177" customHeight="1">
       <c r="B85" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="56.25">
       <c r="B86" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="37.5">
       <c r="B87" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="112.5">
       <c r="B91" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="75">
       <c r="B92" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="56.25">
       <c r="B93" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="131.25">
       <c r="B94" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
       <c r="C95" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="131.25">
       <c r="B97" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="37.5">
       <c r="B98" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2"/>
       <c r="C99" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="93.75">
       <c r="B100" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="2"/>
       <c r="C102" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2"/>
       <c r="C104" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="2"/>
       <c r="C105" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="150">
       <c r="B107" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="2:22" ht="37.5">
       <c r="B114" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="2:22">
       <c r="B117" s="2"/>
       <c r="C117" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
       <c r="C122" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T122" s="14"/>
       <c r="U122" s="14"/>
       <c r="V122" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T123" s="15"/>
       <c r="U123" s="15"/>
       <c r="V123" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
       <c r="C124" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T124" s="15"/>
       <c r="U124" s="15"/>
       <c r="V124" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="2:22">
       <c r="B125" s="2"/>
       <c r="C125" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="2:22" ht="93.75">
       <c r="B127" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="2:22" ht="37.5">
       <c r="B128" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="2"/>
       <c r="C131" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="93.75">
       <c r="B138" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" s="2"/>
       <c r="C140" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="56.25">
       <c r="B145" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="2"/>
       <c r="C146" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="37.5">
       <c r="B147" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="2"/>
       <c r="C148" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="37.5">
       <c r="B150" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D150" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="56.25">
       <c r="B151" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="5:7">
       <c r="E186" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="5:7" ht="75">
       <c r="E187" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G187" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="F187" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G187" s="16" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="188" spans="5:7" ht="75">
       <c r="E188" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G188" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="F188" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="190" spans="5:7" ht="30">
@@ -16057,34 +17426,34 @@
     </row>
     <row r="192" spans="5:7">
       <c r="E192" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="5:6" ht="93.75">
       <c r="E193" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="5:6" ht="44.25">
       <c r="E194" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="5:6" ht="93.75">
       <c r="E195" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F195" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -16108,16 +17477,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5">
@@ -16125,19 +17494,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5">
@@ -16145,10 +17514,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16156,10 +17525,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -16167,10 +17536,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16193,34 +17562,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5">
@@ -16228,10 +17597,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="112.5">
@@ -16239,10 +17608,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5">
@@ -16250,10 +17619,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16277,16 +17646,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -16294,10 +17663,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16305,19 +17674,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16325,10 +17694,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -16336,10 +17705,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16350,177 +17719,384 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D3E1D-9BBA-44FA-954A-2211FC5D91F4}">
-  <dimension ref="B1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="62.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="192.75" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="37.5">
       <c r="B14" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.5">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5">
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="56.25">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="56.25">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="7" t="s">
+      <c r="C21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="37.5">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="7" t="s">
+      <c r="C23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="C26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
+      <c r="C28" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
+      <c r="C30" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="C31" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="37.5">
       <c r="B34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>25</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16537,12 +18113,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -16550,72 +18126,72 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E361883-2D1C-46EE-8DD9-829A84AA9479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1D1D7-B52A-4ED0-BB8B-86C7C2DD13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="views.py" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="284">
   <si>
     <r>
       <t>from</t>
@@ -2818,137 +2818,6 @@
         <family val="3"/>
       </rPr>
       <t>"create-book"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"book/&lt;int:pk&gt;/delete/"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>views</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DetailBookView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>as_view</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"delete-book"</t>
     </r>
     <r>
       <rPr>
@@ -9081,6 +8950,176 @@
     <rPh sb="18" eb="19">
       <t>ヒモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urlとビューの紐づけ用</t>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viewのクラスをimport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ（ルートURL）へのアクセスを index_view で処理。
+name="index" によって、テンプレートなどで url 'index' として逆引き可能。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑以下同様</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">↑ + 特定の書籍の詳細ページ。&lt;int:pk&gt; で主キー（Primary Key）をURLから取得。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑+ 特定の書籍の詳細ページ。&lt;int:pk&gt; で主キー（Primary Key）をURLから取得。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book/&lt;int:pk&gt;/delete/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DeleteBookView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as_view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"delete-book"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15720,168 +15759,168 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -15889,1536 +15928,1536 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="75">
       <c r="B23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="378.75">
       <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T30" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="U30" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="U30" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="37.5">
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T31" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="37.5">
       <c r="B32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T32" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="37.5">
       <c r="B33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T33" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="U33" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="2"/>
       <c r="C36" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="165.75">
       <c r="B38" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="112.5">
       <c r="B39" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="75">
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="56.25">
       <c r="B43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="75">
       <c r="B46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:21">
       <c r="B47" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="141.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="141.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="56.25">
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="168.75">
       <c r="B56" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="112.5">
       <c r="B57" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2"/>
       <c r="C60" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="243.75">
       <c r="B62" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="131.25">
       <c r="B63" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:21">
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:21">
       <c r="B66" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:21" ht="150">
       <c r="B67" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T67" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="U67" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="U67" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:21" ht="37.5">
       <c r="B68" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T68" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="U68" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="75">
       <c r="B69" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T69" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="U69" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="U69" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="56.25">
       <c r="B70" s="2"/>
       <c r="C70" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T70" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U70" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="U70" s="15" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="71" spans="2:21" ht="37.5">
       <c r="B71" s="2"/>
       <c r="C71" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T71" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="U71" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="U71" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="37.5">
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T72" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U72" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="U72" s="15" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="73" spans="2:21" ht="187.5">
       <c r="B73" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:21">
       <c r="B75" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:21" ht="75">
       <c r="B76" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>199</v>
-      </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:21">
       <c r="B77" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:21">
       <c r="B78" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:21">
       <c r="B79" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="2:21">
       <c r="B80" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="187.5">
       <c r="B81" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="177" customHeight="1">
       <c r="B85" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="56.25">
       <c r="B86" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="37.5">
       <c r="B87" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="112.5">
       <c r="B91" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="75">
       <c r="B92" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="56.25">
       <c r="B93" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="131.25">
       <c r="B94" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="2"/>
       <c r="C95" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="131.25">
       <c r="B97" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="37.5">
       <c r="B98" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2"/>
       <c r="C99" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="93.75">
       <c r="B100" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="2"/>
       <c r="C102" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2"/>
       <c r="C104" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="2"/>
       <c r="C105" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="150">
       <c r="B107" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:22">
       <c r="B113" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="2:22" ht="37.5">
       <c r="B114" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="2:22">
       <c r="B115" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="2:22">
       <c r="B116" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="2:22">
       <c r="B117" s="2"/>
       <c r="C117" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="2:22">
       <c r="B119" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="2:22">
       <c r="B120" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="2"/>
       <c r="C122" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T122" s="14"/>
       <c r="U122" s="14"/>
       <c r="V122" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="56.25">
       <c r="B123" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T123" s="15"/>
       <c r="U123" s="15"/>
       <c r="V123" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="56.25">
       <c r="B124" s="2"/>
       <c r="C124" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T124" s="15"/>
       <c r="U124" s="15"/>
       <c r="V124" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="2:22">
       <c r="B125" s="2"/>
       <c r="C125" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="2:22">
       <c r="B126" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="2:22" ht="93.75">
       <c r="B127" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="2:22" ht="37.5">
       <c r="B128" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="2"/>
       <c r="C131" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C134" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" t="s">
         <v>250</v>
-      </c>
-      <c r="D134" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="93.75">
       <c r="B138" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" s="2"/>
       <c r="C140" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="56.25">
       <c r="B145" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="2"/>
       <c r="C146" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="37.5">
       <c r="B147" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="2"/>
       <c r="C148" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="37.5">
       <c r="B150" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="56.25">
       <c r="B151" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="5:7">
       <c r="E186" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G186" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="F186" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G186" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="187" spans="5:7" ht="75">
       <c r="E187" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F187" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F187" s="15" t="s">
+      <c r="G187" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="G187" s="16" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="188" spans="5:7" ht="75">
       <c r="E188" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F188" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F188" s="15" t="s">
+      <c r="G188" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="190" spans="5:7" ht="30">
@@ -17426,34 +17465,34 @@
     </row>
     <row r="192" spans="5:7">
       <c r="E192" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="5:6" ht="93.75">
       <c r="E193" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F193" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="194" spans="5:6" ht="44.25">
       <c r="E194" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F194" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="195" spans="5:6" ht="93.75">
       <c r="E195" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F195" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -17477,16 +17516,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5">
@@ -17494,19 +17533,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5">
@@ -17514,10 +17553,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17525,10 +17564,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17536,10 +17575,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -17562,34 +17601,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5">
@@ -17597,10 +17636,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="112.5">
@@ -17608,10 +17647,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5">
@@ -17619,10 +17658,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -17646,16 +17685,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17663,10 +17702,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17674,19 +17713,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17694,10 +17733,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17705,10 +17744,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -17721,7 +17760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D3E1D-9BBA-44FA-954A-2211FC5D91F4}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -17731,16 +17770,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17748,28 +17787,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="2"/>
       <c r="C4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17777,10 +17816,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17788,10 +17827,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -17799,19 +17838,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2"/>
       <c r="C8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17819,10 +17858,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="192.75" customHeight="1">
@@ -17830,28 +17869,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17859,21 +17898,21 @@
         <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5">
       <c r="B14" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
@@ -17881,10 +17920,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5">
@@ -17892,10 +17931,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="56.25">
@@ -17903,10 +17942,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="56.25">
@@ -17914,27 +17953,27 @@
         <v>23</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -17942,10 +17981,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="37.5">
@@ -17953,10 +17992,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -17964,28 +18003,28 @@
         <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2"/>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2"/>
       <c r="C25" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -17993,10 +18032,10 @@
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -18004,10 +18043,10 @@
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -18015,10 +18054,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -18026,10 +18065,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -18037,10 +18076,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -18048,10 +18087,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -18059,16 +18098,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2"/>
       <c r="C33" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="37.5">
@@ -18076,10 +18115,10 @@
         <v>25</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -18087,10 +18126,10 @@
         <v>26</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -18102,96 +18141,201 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D18F1E-50AC-4791-8792-7D25B1E84850}">
-  <dimension ref="B1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75">
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="56.25">
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="37.5">
       <c r="B10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="37.5">
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
-        <v>49</v>
+      <c r="C17" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book解析.xlsx
+++ b/doc/book解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1D1D7-B52A-4ED0-BB8B-86C7C2DD13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9541E5E-B573-422A-ACC9-3D6BDB7ADEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18143,9 +18143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D18F1E-50AC-4791-8792-7D25B1E84850}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -18154,7 +18152,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
